--- a/lifehist/2017_12_08 GLMM tables.xlsx
+++ b/lifehist/2017_12_08 GLMM tables.xlsx
@@ -1,18 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vmc04\Documents\GitHub\wingproj\lifehist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\virgc\GitHub\wingproj\lifehist\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Cox" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="141">
   <si>
     <t>Estimate</t>
   </si>
@@ -123,13 +126,337 @@
   </si>
   <si>
     <t>Formula: AL ~ (1 | Biome) + (1 | State) + Temp_let * Lat_group</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>AIC</t>
+  </si>
+  <si>
+    <t>lr_fit1g</t>
+  </si>
+  <si>
+    <t>lr_fit2g</t>
+  </si>
+  <si>
+    <t>lr_fit3g</t>
+  </si>
+  <si>
+    <t>lr_fit4g</t>
+  </si>
+  <si>
+    <t>lr_fit5g</t>
+  </si>
+  <si>
+    <t>lr_fit6g</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>lr_fit7g</t>
+  </si>
+  <si>
+    <t>lr_fit8g</t>
+  </si>
+  <si>
+    <t>LarvRate ~ Biome + (1 | State) + (1 | Family)</t>
+  </si>
+  <si>
+    <t>LarvRate ~ Lat_group + (1 | Family) + (1 | State)</t>
+  </si>
+  <si>
+    <t>LarvRate ~ Lat_group * Temp_let + (1 | Biome) + (1 | State) + (1 | Family)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LarvRate ~ (1 | Lat_group) + (1 | State) + (1 | Family) + Temp_let *    Biome </t>
+  </si>
+  <si>
+    <t>LarvRate ~ Lat_group + Temp_let + (1 | Biome) + (1 | State) +     (1 | Family)</t>
+  </si>
+  <si>
+    <t>LarvRate ~ (1 | Lat_group) + (1 | State) + (1 | Family) + Temp_let +    Biome</t>
+  </si>
+  <si>
+    <t>LarvRate ~ Lat_group * Temp_let + (1 | State) + (1 | Family)</t>
+  </si>
+  <si>
+    <t>LarvRate ~ (1 | Family) + (1 | State) + Temp_let * Biome</t>
+  </si>
+  <si>
+    <t>lr_adult1g</t>
+  </si>
+  <si>
+    <t>lr_adult2g</t>
+  </si>
+  <si>
+    <t>lr_adult3g</t>
+  </si>
+  <si>
+    <t>lr_adult4g</t>
+  </si>
+  <si>
+    <t>lr_adult5g</t>
+  </si>
+  <si>
+    <t>lr_adult6g</t>
+  </si>
+  <si>
+    <t>lr_adult7g</t>
+  </si>
+  <si>
+    <t>lr_adult8g</t>
+  </si>
+  <si>
+    <t>lr_adult9g</t>
+  </si>
+  <si>
+    <t>LarvRate~(1|Family)+(1|State)+Temp_let*Biome*Lat_group</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Mid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mid </t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Biome</t>
+  </si>
+  <si>
+    <t>Locality</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>ARS</t>
+  </si>
+  <si>
+    <t>APR</t>
+  </si>
+  <si>
+    <t>RPV</t>
+  </si>
+  <si>
+    <t>RMO</t>
+  </si>
+  <si>
+    <t>Cerrado</t>
+  </si>
+  <si>
+    <t>TLC</t>
+  </si>
+  <si>
+    <t>TPN</t>
+  </si>
+  <si>
+    <t>Mata Atlantica</t>
+  </si>
+  <si>
+    <t>SJU</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>coxph(formula = Surv(time, Death_stat) ~ Biome * Temp_let, data = lifehistshort)</t>
+  </si>
+  <si>
+    <t>coxph(formula = Sur</t>
+  </si>
+  <si>
+    <t>v(time, Dea</t>
+  </si>
+  <si>
+    <t>th_stat) ~</t>
+  </si>
+  <si>
+    <t>Lat_gro</t>
+  </si>
+  <si>
+    <t>up * Te</t>
+  </si>
+  <si>
+    <t>mp_let,</t>
+  </si>
+  <si>
+    <t>data = lifehist</t>
+  </si>
+  <si>
+    <t>short)</t>
+  </si>
+  <si>
+    <t>coef</t>
+  </si>
+  <si>
+    <t>exp(coef) s</t>
+  </si>
+  <si>
+    <t>e(coef)</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>Lat_group2:Temp_let</t>
+  </si>
+  <si>
+    <t>B  0.00216</t>
+  </si>
+  <si>
+    <t>Lat_group3:Temp_let</t>
+  </si>
+  <si>
+    <t>B  0.14630</t>
+  </si>
+  <si>
+    <t>C -0.64696</t>
+  </si>
+  <si>
+    <t>C -2.06824</t>
+  </si>
+  <si>
+    <t>Likelihood ratio te</t>
+  </si>
+  <si>
+    <t>st=2110  on</t>
+  </si>
+  <si>
+    <t>8 df, p=0</t>
+  </si>
+  <si>
+    <t>n= 3430, number of</t>
+  </si>
+  <si>
+    <t>events= 265</t>
+  </si>
+  <si>
+    <t>exp(coef)</t>
+  </si>
+  <si>
+    <t>se(coef)</t>
+  </si>
+  <si>
+    <t>BiomeCerrado</t>
+  </si>
+  <si>
+    <t>BiomeMata Atlantica</t>
+  </si>
+  <si>
+    <t>BiomeCerrado:Temp_letB</t>
+  </si>
+  <si>
+    <t>BiomeMata Atlantica:Temp_letB</t>
+  </si>
+  <si>
+    <t>BiomeCerrado:Temp_letC</t>
+  </si>
+  <si>
+    <t>BiomeMata Atlantica:Temp_letC</t>
+  </si>
+  <si>
+    <t>Likelihood ratio test=1735  o</t>
+  </si>
+  <si>
+    <t>n 8 df,</t>
+  </si>
+  <si>
+    <t>p=0</t>
+  </si>
+  <si>
+    <t>n= 3430, number of events= 26</t>
+  </si>
+  <si>
+    <t>daysll_fit1g</t>
+  </si>
+  <si>
+    <t>daysll_fit2g</t>
+  </si>
+  <si>
+    <t>daysll_fit3g</t>
+  </si>
+  <si>
+    <t>daysll_fit4g</t>
+  </si>
+  <si>
+    <t>daysll_fit5g</t>
+  </si>
+  <si>
+    <t>daysll_fit6g</t>
+  </si>
+  <si>
+    <t>daysll_fit7g</t>
+  </si>
+  <si>
+    <t>daysll_fit8g</t>
+  </si>
+  <si>
+    <t>daysll_fit9g</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Model on outcome larvrate</t>
+  </si>
+  <si>
+    <t>Temp_let* Biome + (1 | Lat_group) + (1 | State) + (1 | Family)</t>
+  </si>
+  <si>
+    <t>Temp_let* Biome + (1 | State) + (1 | Family)</t>
+  </si>
+  <si>
+    <t>Lat_group * Temp_let + (1 | Biome) + (1 | State) + (1 | Family)</t>
+  </si>
+  <si>
+    <t>Lat_group * Temp_let + (1 | State) + (1 | Family)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,16 +470,47 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -212,11 +570,123 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -231,6 +701,55 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -248,6 +767,1122 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>20C</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$F$25:$F$33</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Low</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Low</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Low</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mid</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mid</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Mid </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>High</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>High</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>High</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$H$25,Sheet1!$H$28,Sheet1!$H$31)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.1308363263211906E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6220332324189407E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2978403352315467E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C5B7-4D29-9B56-73609BE4B4C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>24C</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$F$25:$F$33</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Low</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Low</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Low</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mid</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mid</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Mid </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>High</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>High</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>High</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$H$26,Sheet1!$H$29,Sheet1!$H$32)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.9380307114948405E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.3333333333333337E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6362160699792586E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C5B7-4D29-9B56-73609BE4B4C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>28C</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>(Sheet1!$F$25,Sheet1!$F$28,Sheet1!$F$31)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Low</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mid</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>High</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$H$27,Sheet1!$H$30,Sheet1!$H$33)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.7568937208186658E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2302622976542278E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8647242699884472E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C5B7-4D29-9B56-73609BE4B4C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="460633976"/>
+        <c:axId val="460631024"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="460633976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="460631024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="460631024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="460633976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>847724</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>130968</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>647699</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>54768</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BA5F07A-11CA-4BA1-B952-4A0DB1E0D73B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -546,27 +2181,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="J3:AD24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="F3:AD33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Y4" sqref="Y4:AD15"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="17" width="9.140625" style="1"/>
-    <col min="18" max="18" width="26.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="9.140625" style="1"/>
-    <col min="22" max="22" width="8.28515625" style="1" customWidth="1"/>
-    <col min="23" max="24" width="9.140625" style="1"/>
-    <col min="25" max="25" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="9" width="9.1328125" style="1"/>
+    <col min="10" max="10" width="21.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="17" width="9.1328125" style="1"/>
+    <col min="18" max="18" width="26.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="9.1328125" style="1"/>
+    <col min="22" max="22" width="8.265625" style="1" customWidth="1"/>
+    <col min="23" max="24" width="9.1328125" style="1"/>
+    <col min="25" max="25" width="20.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="7:30" x14ac:dyDescent="0.4">
       <c r="R3" s="5" t="s">
         <v>30</v>
       </c>
@@ -576,7 +2211,7 @@
       <c r="V3" s="6"/>
       <c r="W3" s="7"/>
     </row>
-    <row r="4" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="7:30" x14ac:dyDescent="0.4">
       <c r="J4" s="4" t="s">
         <v>17</v>
       </c>
@@ -608,7 +2243,7 @@
       <c r="AC4" s="4"/>
       <c r="AD4" s="4"/>
     </row>
-    <row r="5" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="7:30" x14ac:dyDescent="0.4">
       <c r="J5" s="2"/>
       <c r="K5" s="2" t="s">
         <v>0</v>
@@ -656,7 +2291,7 @@
       </c>
       <c r="AD5" s="2"/>
     </row>
-    <row r="6" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="7:30" x14ac:dyDescent="0.4">
       <c r="J6" s="2" t="s">
         <v>4</v>
       </c>
@@ -712,7 +2347,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="7:30" x14ac:dyDescent="0.4">
       <c r="J7" s="2" t="s">
         <v>7</v>
       </c>
@@ -768,7 +2403,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="7:30" x14ac:dyDescent="0.4">
       <c r="J8" s="2" t="s">
         <v>8</v>
       </c>
@@ -824,7 +2459,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="7:30" x14ac:dyDescent="0.4">
       <c r="J9" s="2" t="s">
         <v>9</v>
       </c>
@@ -880,7 +2515,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="7:30" x14ac:dyDescent="0.4">
       <c r="J10" s="2" t="s">
         <v>10</v>
       </c>
@@ -932,7 +2567,7 @@
       </c>
       <c r="AD10" s="2"/>
     </row>
-    <row r="11" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="7:30" x14ac:dyDescent="0.4">
       <c r="J11" s="2" t="s">
         <v>11</v>
       </c>
@@ -986,7 +2621,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="7:30" x14ac:dyDescent="0.4">
       <c r="J12" s="2" t="s">
         <v>13</v>
       </c>
@@ -1040,7 +2675,7 @@
       </c>
       <c r="AD12" s="2"/>
     </row>
-    <row r="13" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="7:30" x14ac:dyDescent="0.4">
       <c r="J13" s="2" t="s">
         <v>15</v>
       </c>
@@ -1094,7 +2729,7 @@
       </c>
       <c r="AD13" s="2"/>
     </row>
-    <row r="14" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="7:30" x14ac:dyDescent="0.4">
       <c r="J14" s="2" t="s">
         <v>16</v>
       </c>
@@ -1148,7 +2783,7 @@
       </c>
       <c r="AD14" s="2"/>
     </row>
-    <row r="15" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="7:30" x14ac:dyDescent="0.4">
       <c r="J15" s="4" t="s">
         <v>18</v>
       </c>
@@ -1184,7 +2819,17 @@
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
     </row>
-    <row r="16" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="7:30" x14ac:dyDescent="0.4">
+      <c r="G16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="1">
+        <v>19.489999999999998</v>
+      </c>
+      <c r="I16" s="1">
+        <f>1/H16</f>
+        <v>5.1308363263211906E-2</v>
+      </c>
       <c r="R16" s="2" t="s">
         <v>22</v>
       </c>
@@ -1202,7 +2847,18 @@
       </c>
       <c r="W16" s="2"/>
     </row>
-    <row r="17" spans="18:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:23" x14ac:dyDescent="0.4">
+      <c r="G17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="1">
+        <f>H16+K7</f>
+        <v>16.840599999999998</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" ref="H17:I32" si="0">1/H17</f>
+        <v>5.9380307114948405E-2</v>
+      </c>
       <c r="R17" s="2" t="s">
         <v>23</v>
       </c>
@@ -1220,7 +2876,18 @@
       </c>
       <c r="W17" s="2"/>
     </row>
-    <row r="18" spans="18:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:23" x14ac:dyDescent="0.4">
+      <c r="G18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18" s="1">
+        <f>H16+K8</f>
+        <v>14.799699999999998</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="0"/>
+        <v>6.7568937208186658E-2</v>
+      </c>
       <c r="R18" s="2" t="s">
         <v>24</v>
       </c>
@@ -1238,7 +2905,18 @@
       </c>
       <c r="W18" s="2"/>
     </row>
-    <row r="19" spans="18:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:23" x14ac:dyDescent="0.4">
+      <c r="G19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" s="1">
+        <f>K6+K9</f>
+        <v>21.6355</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="0"/>
+        <v>4.6220332324189407E-2</v>
+      </c>
       <c r="R19" s="2" t="s">
         <v>25</v>
       </c>
@@ -1256,7 +2934,18 @@
       </c>
       <c r="W19" s="2"/>
     </row>
-    <row r="20" spans="18:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:23" x14ac:dyDescent="0.4">
+      <c r="G20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" s="1">
+        <f>K6+K11</f>
+        <v>18.75</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="0"/>
+        <v>5.3333333333333337E-2</v>
+      </c>
       <c r="R20" s="2" t="s">
         <v>26</v>
       </c>
@@ -1274,7 +2963,18 @@
       </c>
       <c r="W20" s="2"/>
     </row>
-    <row r="21" spans="18:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:23" x14ac:dyDescent="0.4">
+      <c r="G21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" s="1">
+        <f>K6+K12</f>
+        <v>19.119499999999999</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="0"/>
+        <v>5.2302622976542278E-2</v>
+      </c>
       <c r="R21" s="2" t="s">
         <v>27</v>
       </c>
@@ -1292,7 +2992,18 @@
       </c>
       <c r="W21" s="2"/>
     </row>
-    <row r="22" spans="18:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="6:23" x14ac:dyDescent="0.4">
+      <c r="G22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H22" s="1">
+        <f>K6+K10</f>
+        <v>23.267499999999998</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="0"/>
+        <v>4.2978403352315467E-2</v>
+      </c>
       <c r="R22" s="2" t="s">
         <v>28</v>
       </c>
@@ -1310,7 +3021,18 @@
       </c>
       <c r="W22" s="2"/>
     </row>
-    <row r="23" spans="18:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:23" x14ac:dyDescent="0.4">
+      <c r="G23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" s="1">
+        <f>K6+K13</f>
+        <v>17.7424</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="0"/>
+        <v>5.6362160699792586E-2</v>
+      </c>
       <c r="R23" s="2" t="s">
         <v>29</v>
       </c>
@@ -1330,7 +3052,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="18:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="6:23" x14ac:dyDescent="0.4">
+      <c r="G24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" s="1">
+        <f>K6+K14</f>
+        <v>17.051099999999998</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="0"/>
+        <v>5.8647242699884472E-2</v>
+      </c>
       <c r="R24" s="4" t="s">
         <v>18</v>
       </c>
@@ -1339,6 +3072,105 @@
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
       <c r="W24" s="4"/>
+    </row>
+    <row r="25" spans="6:23" x14ac:dyDescent="0.4">
+      <c r="F25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G25" s="1">
+        <v>20</v>
+      </c>
+      <c r="H25" s="1">
+        <v>5.1308363263211906E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="6:23" x14ac:dyDescent="0.4">
+      <c r="F26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G26" s="1">
+        <v>24</v>
+      </c>
+      <c r="H26" s="1">
+        <v>5.9380307114948405E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="6:23" x14ac:dyDescent="0.4">
+      <c r="F27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G27" s="1">
+        <v>28</v>
+      </c>
+      <c r="H27" s="1">
+        <v>6.7568937208186658E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="6:23" x14ac:dyDescent="0.4">
+      <c r="F28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G28" s="1">
+        <v>20</v>
+      </c>
+      <c r="H28" s="1">
+        <v>4.6220332324189407E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="6:23" x14ac:dyDescent="0.4">
+      <c r="F29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G29" s="1">
+        <v>24</v>
+      </c>
+      <c r="H29" s="1">
+        <v>5.3333333333333337E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="6:23" x14ac:dyDescent="0.4">
+      <c r="F30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G30" s="1">
+        <v>28</v>
+      </c>
+      <c r="H30" s="1">
+        <v>5.2302622976542278E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="6:23" x14ac:dyDescent="0.4">
+      <c r="F31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G31" s="1">
+        <v>20</v>
+      </c>
+      <c r="H31" s="1">
+        <v>4.2978403352315467E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="6:23" x14ac:dyDescent="0.4">
+      <c r="F32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G32" s="1">
+        <v>24</v>
+      </c>
+      <c r="H32" s="1">
+        <v>5.6362160699792586E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G33" s="1">
+        <v>28</v>
+      </c>
+      <c r="H33" s="1">
+        <v>5.8647242699884472E-2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1351,5 +3183,1267 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4725F0E-1B07-491C-A10E-8DD0466B9E97}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="19.9296875" customWidth="1"/>
+    <col min="2" max="2" width="12.06640625" customWidth="1"/>
+    <col min="3" max="3" width="12.265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.6">
+      <c r="A1" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.6">
+      <c r="A2" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="12">
+        <v>-2.8639999999999999</v>
+      </c>
+      <c r="D2" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.6">
+      <c r="A3" s="16"/>
+      <c r="B3" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="12">
+        <v>-3.028</v>
+      </c>
+      <c r="D3" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="19.5" x14ac:dyDescent="0.6">
+      <c r="A4" s="16"/>
+      <c r="B4" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="12">
+        <v>-8.7420000000000009</v>
+      </c>
+      <c r="D4" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="19.5" x14ac:dyDescent="0.6">
+      <c r="A5" s="17"/>
+      <c r="B5" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="12">
+        <v>-9.2230000000000008</v>
+      </c>
+      <c r="D5" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="19.5" x14ac:dyDescent="0.6">
+      <c r="A6" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="12">
+        <v>-10.7</v>
+      </c>
+      <c r="D6" s="12">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="19.5" x14ac:dyDescent="0.6">
+      <c r="A7" s="17"/>
+      <c r="B7" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="12">
+        <v>-10.795999999999999</v>
+      </c>
+      <c r="D7" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="19.899999999999999" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A8" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="14">
+        <v>-22.611000000000001</v>
+      </c>
+      <c r="D8" s="14">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B38D0DA5-94E5-4B4C-8F1E-8A5A51406A71}">
+  <dimension ref="A1:N32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="38.73046875" customWidth="1"/>
+    <col min="6" max="6" width="7.796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="9"/>
+      <c r="B4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>-1.00298</v>
+      </c>
+      <c r="C5">
+        <v>0.36677999999999999</v>
+      </c>
+      <c r="D5">
+        <v>7.3679999999999995E-2</v>
+      </c>
+      <c r="E5">
+        <v>-13.61</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>-1.7122900000000001</v>
+      </c>
+      <c r="C6">
+        <v>0.18045</v>
+      </c>
+      <c r="D6">
+        <v>0.11085</v>
+      </c>
+      <c r="E6">
+        <v>-15.45</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>1.27115</v>
+      </c>
+      <c r="C7">
+        <v>3.56494</v>
+      </c>
+      <c r="D7">
+        <v>7.9810000000000006E-2</v>
+      </c>
+      <c r="E7">
+        <v>15.93</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>2.5308199999999998</v>
+      </c>
+      <c r="C8">
+        <v>12.56382</v>
+      </c>
+      <c r="D8">
+        <v>8.8529999999999998E-2</v>
+      </c>
+      <c r="E8">
+        <v>28.59</v>
+      </c>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9">
+        <v>1.0021599999999999</v>
+      </c>
+      <c r="D9">
+        <v>0.10153</v>
+      </c>
+      <c r="E9">
+        <v>0.02</v>
+      </c>
+      <c r="F9">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10">
+        <v>1.15754</v>
+      </c>
+      <c r="D10">
+        <v>0.15254999999999999</v>
+      </c>
+      <c r="E10">
+        <v>0.96</v>
+      </c>
+      <c r="F10">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11">
+        <v>0.52363000000000004</v>
+      </c>
+      <c r="D11">
+        <v>0.10853</v>
+      </c>
+      <c r="E11">
+        <v>-5.96</v>
+      </c>
+      <c r="F11" s="21">
+        <v>2.5000000000000001E-9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12">
+        <v>0.12640999999999999</v>
+      </c>
+      <c r="D12">
+        <v>0.21623999999999999</v>
+      </c>
+      <c r="E12">
+        <v>-9.56</v>
+      </c>
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A19" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A20" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="9"/>
+      <c r="I20" t="s">
+        <v>98</v>
+      </c>
+      <c r="J20" t="s">
+        <v>114</v>
+      </c>
+      <c r="K20" t="s">
+        <v>115</v>
+      </c>
+      <c r="L20" t="s">
+        <v>101</v>
+      </c>
+      <c r="M20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A21" s="22"/>
+      <c r="B21" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="I21">
+        <v>-0.34971099999999999</v>
+      </c>
+      <c r="J21">
+        <v>0.70489199999999996</v>
+      </c>
+      <c r="K21">
+        <v>9.7693000000000002E-2</v>
+      </c>
+      <c r="L21">
+        <v>-3.58</v>
+      </c>
+      <c r="M21">
+        <v>3.4400000000000001E-4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A22" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" s="23">
+        <v>-0.377</v>
+      </c>
+      <c r="C22" s="23">
+        <v>0.68589999999999995</v>
+      </c>
+      <c r="D22" s="23">
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="E22" s="23">
+        <v>-3.87</v>
+      </c>
+      <c r="F22" s="24">
+        <v>1.1E-4</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="I22">
+        <v>-1.16808</v>
+      </c>
+      <c r="J22">
+        <v>0.31096299999999999</v>
+      </c>
+      <c r="K22">
+        <v>0.100703</v>
+      </c>
+      <c r="L22">
+        <v>-11.599</v>
+      </c>
+      <c r="M22" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A23" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" s="23">
+        <v>-0.99360000000000004</v>
+      </c>
+      <c r="C23" s="23">
+        <v>0.37019999999999997</v>
+      </c>
+      <c r="D23" s="23">
+        <v>9.8500000000000004E-2</v>
+      </c>
+      <c r="E23" s="23">
+        <v>-10.09</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23">
+        <v>1.6244179999999999</v>
+      </c>
+      <c r="J23">
+        <v>5.0754630000000001</v>
+      </c>
+      <c r="K23">
+        <v>5.9499999999999997E-2</v>
+      </c>
+      <c r="L23">
+        <v>27.300999999999998</v>
+      </c>
+      <c r="M23" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A24" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="23">
+        <v>1.3096000000000001</v>
+      </c>
+      <c r="C24" s="23">
+        <v>3.7048000000000001</v>
+      </c>
+      <c r="D24" s="23">
+        <v>5.6099999999999997E-2</v>
+      </c>
+      <c r="E24" s="23">
+        <v>23.33</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24">
+        <v>2.640231</v>
+      </c>
+      <c r="J24">
+        <v>14.016441</v>
+      </c>
+      <c r="K24">
+        <v>6.6895999999999997E-2</v>
+      </c>
+      <c r="L24">
+        <v>39.468000000000004</v>
+      </c>
+      <c r="M24" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A25" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="23">
+        <v>2.1396999999999999</v>
+      </c>
+      <c r="C25" s="23">
+        <v>8.4966000000000008</v>
+      </c>
+      <c r="D25" s="23">
+        <v>6.3299999999999995E-2</v>
+      </c>
+      <c r="E25" s="23">
+        <v>33.79</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="I25">
+        <v>-0.60572599999999999</v>
+      </c>
+      <c r="J25">
+        <v>0.545678</v>
+      </c>
+      <c r="K25">
+        <v>0.13950399999999999</v>
+      </c>
+      <c r="L25">
+        <v>-4.3419999999999996</v>
+      </c>
+      <c r="M25" s="21">
+        <v>1.4100000000000001E-5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A26" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26" s="23">
+        <v>-0.52610000000000001</v>
+      </c>
+      <c r="C26" s="23">
+        <v>0.59089999999999998</v>
+      </c>
+      <c r="D26" s="23">
+        <v>0.13930000000000001</v>
+      </c>
+      <c r="E26" s="23">
+        <v>-3.78</v>
+      </c>
+      <c r="F26" s="24">
+        <v>1.6000000000000001E-4</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="I26">
+        <v>7.6610000000000003E-3</v>
+      </c>
+      <c r="J26">
+        <v>1.00769</v>
+      </c>
+      <c r="K26">
+        <v>0.14013300000000001</v>
+      </c>
+      <c r="L26">
+        <v>5.5E-2</v>
+      </c>
+      <c r="M26">
+        <v>0.956403</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A27" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" s="23">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="C27" s="23">
+        <v>0.98509999999999998</v>
+      </c>
+      <c r="D27" s="23">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="E27" s="23">
+        <v>-0.11</v>
+      </c>
+      <c r="F27" s="23">
+        <v>0.91413999999999995</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="I27">
+        <v>-0.83803899999999998</v>
+      </c>
+      <c r="J27">
+        <v>0.432558</v>
+      </c>
+      <c r="K27">
+        <v>0.148311</v>
+      </c>
+      <c r="L27">
+        <v>-5.6509999999999998</v>
+      </c>
+      <c r="M27" s="21">
+        <v>1.6000000000000001E-8</v>
+      </c>
+      <c r="N27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A28" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" s="23">
+        <v>-0.98499999999999999</v>
+      </c>
+      <c r="C28" s="23">
+        <v>0.37340000000000001</v>
+      </c>
+      <c r="D28" s="23">
+        <v>0.14779999999999999</v>
+      </c>
+      <c r="E28" s="23">
+        <v>-6.67</v>
+      </c>
+      <c r="F28" s="25">
+        <v>2.6000000000000001E-11</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="I28">
+        <v>-0.182003</v>
+      </c>
+      <c r="J28">
+        <v>0.83359899999999998</v>
+      </c>
+      <c r="K28">
+        <v>0.20600399999999999</v>
+      </c>
+      <c r="L28">
+        <v>-0.88300000000000001</v>
+      </c>
+      <c r="M28">
+        <v>0.37697199999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A29" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" s="23">
+        <v>-1.819</v>
+      </c>
+      <c r="C29" s="23">
+        <v>0.16220000000000001</v>
+      </c>
+      <c r="D29" s="23">
+        <v>0.20480000000000001</v>
+      </c>
+      <c r="E29" s="23">
+        <v>-8.8800000000000008</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A30" s="8"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A31" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B31" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A32" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B32">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A20:G20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F31728F-8821-41EF-B53A-85A644AA24E3}">
+  <dimension ref="A1:D44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40:D44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="85.1328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="9"/>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>-18656.830000000002</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>-18655.36</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>-18650.5</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>-18650.47</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>-18617.88</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>-18617.13</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>-16935.09</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>-16934.98</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" s="9"/>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>-16929.91</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>-16930.09</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>-18643.55</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17">
+        <v>13</v>
+      </c>
+      <c r="C17">
+        <v>-18648.330000000002</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>-18610.14</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>-18610.849999999999</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>-18643.54</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21">
+        <v>12</v>
+      </c>
+      <c r="C21">
+        <v>-18649.79</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22">
+        <v>15</v>
+      </c>
+      <c r="C22">
+        <v>-18678.73</v>
+      </c>
+      <c r="D22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" s="9"/>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B28">
+        <v>14</v>
+      </c>
+      <c r="C28">
+        <v>13243.29</v>
+      </c>
+      <c r="D28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B29">
+        <v>12</v>
+      </c>
+      <c r="C29">
+        <v>13256.69</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B30">
+        <v>11</v>
+      </c>
+      <c r="C30">
+        <v>13256.89</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B31">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>13259.97</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B32">
+        <v>12</v>
+      </c>
+      <c r="C32">
+        <v>13262.2</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33">
+        <v>11</v>
+      </c>
+      <c r="C33">
+        <v>13262.28</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A34" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B34">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>13262.32</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A35" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B35">
+        <v>5</v>
+      </c>
+      <c r="C35">
+        <v>13873.11</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A36" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <v>13875.69</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B40" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B41" s="23">
+        <v>12</v>
+      </c>
+      <c r="C41" s="23">
+        <v>13256.69</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B42" s="23">
+        <v>11</v>
+      </c>
+      <c r="C42" s="23">
+        <v>13256.89</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B43" s="23">
+        <v>12</v>
+      </c>
+      <c r="C43" s="23">
+        <v>13262.2</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B44" s="23">
+        <v>11</v>
+      </c>
+      <c r="C44" s="23">
+        <v>13262.28</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A28:D36">
+    <sortCondition ref="C28"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/lifehist/2017_12_08 GLMM tables.xlsx
+++ b/lifehist/2017_12_08 GLMM tables.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="161">
   <si>
     <t>Estimate</t>
   </si>
@@ -450,6 +450,66 @@
   </si>
   <si>
     <t>Lat_group * Temp_let + (1 | State) + (1 | Family)</t>
+  </si>
+  <si>
+    <t>coxph(formula = Surv(time, Death_stat) ~ Biome + Temp_num, data = lifehistshort)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  n= 3430, number of events= 2653 </t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>Signif. codes:  0 ‘***’ 0.001 ‘**’ 0.01 ‘*’ 0.05 ‘.’ 0.1 ‘ ’ 1</t>
+  </si>
+  <si>
+    <t>Concordance= 0.769  (se = 0.007 )</t>
+  </si>
+  <si>
+    <t>Rsquare= 0.358   (max possible= 1 )</t>
+  </si>
+  <si>
+    <t>Likelihood ratio test= 1518  on 3 df,   p=0</t>
+  </si>
+  <si>
+    <t>Wald test            = 1431  on 3 df,   p=0</t>
+  </si>
+  <si>
+    <t>Score (logrank) test = 1516  on 3 df,   p=0</t>
+  </si>
+  <si>
+    <t>&lt;2e-16</t>
+  </si>
+  <si>
+    <t>Temp_num</t>
+  </si>
+  <si>
+    <t>exp(-coef)</t>
+  </si>
+  <si>
+    <t>lower .95</t>
+  </si>
+  <si>
+    <t>upper .95</t>
+  </si>
+  <si>
+    <t>Predictor</t>
+  </si>
+  <si>
+    <t>Exp(coef)</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Standard error</t>
+  </si>
+  <si>
+    <t>Coef</t>
   </si>
 </sst>
 </file>
@@ -489,11 +549,13 @@
       <sz val="15"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="15"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -686,23 +748,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -724,15 +774,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -749,9 +790,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2202,24 +2269,24 @@
   </cols>
   <sheetData>
     <row r="3" spans="7:30" x14ac:dyDescent="0.4">
-      <c r="R3" s="5" t="s">
+      <c r="R3" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="7"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="22"/>
     </row>
     <row r="4" spans="7:30" x14ac:dyDescent="0.4">
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2" t="s">
         <v>0</v>
@@ -2234,14 +2301,14 @@
         <v>3</v>
       </c>
       <c r="W4" s="2"/>
-      <c r="Y4" s="4" t="s">
+      <c r="Y4" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
+      <c r="Z4" s="19"/>
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="19"/>
+      <c r="AD4" s="19"/>
     </row>
     <row r="5" spans="7:30" x14ac:dyDescent="0.4">
       <c r="J5" s="2"/>
@@ -2784,14 +2851,14 @@
       <c r="AD14" s="2"/>
     </row>
     <row r="15" spans="7:30" x14ac:dyDescent="0.4">
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
       <c r="R15" s="2" t="s">
         <v>16</v>
       </c>
@@ -2810,14 +2877,14 @@
       <c r="W15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Y15" s="4" t="s">
+      <c r="Y15" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="4"/>
-      <c r="AD15" s="4"/>
+      <c r="Z15" s="19"/>
+      <c r="AA15" s="19"/>
+      <c r="AB15" s="19"/>
+      <c r="AC15" s="19"/>
+      <c r="AD15" s="19"/>
     </row>
     <row r="16" spans="7:30" x14ac:dyDescent="0.4">
       <c r="G16" s="1" t="s">
@@ -2856,7 +2923,7 @@
         <v>16.840599999999998</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" ref="H17:I32" si="0">1/H17</f>
+        <f t="shared" ref="I17:I24" si="0">1/H17</f>
         <v>5.9380307114948405E-2</v>
       </c>
       <c r="R17" s="2" t="s">
@@ -3064,14 +3131,14 @@
         <f t="shared" si="0"/>
         <v>5.8647242699884472E-2</v>
       </c>
-      <c r="R24" s="4" t="s">
+      <c r="R24" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="19"/>
+      <c r="W24" s="19"/>
     </row>
     <row r="25" spans="6:23" x14ac:dyDescent="0.4">
       <c r="F25" s="1" t="s">
@@ -3203,106 +3270,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.6">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="13" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.6">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="8">
         <v>-2.8639999999999999</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="8">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.6">
-      <c r="A3" s="16"/>
-      <c r="B3" s="11" t="s">
+      <c r="A3" s="24"/>
+      <c r="B3" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="8">
         <v>-3.028</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="8">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="19.5" x14ac:dyDescent="0.6">
-      <c r="A4" s="16"/>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="24"/>
+      <c r="B4" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="8">
         <v>-8.7420000000000009</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="8">
         <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="19.5" x14ac:dyDescent="0.6">
-      <c r="A5" s="17"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="25"/>
+      <c r="B5" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="8">
         <v>-9.2230000000000008</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="8">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="19.5" x14ac:dyDescent="0.6">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="8">
         <v>-10.7</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="8">
         <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="19.5" x14ac:dyDescent="0.6">
-      <c r="A7" s="17"/>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="25"/>
+      <c r="B7" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="8">
         <v>-10.795999999999999</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="8">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="19.899999999999999" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="10">
         <v>-22.611000000000001</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="10">
         <v>11</v>
       </c>
     </row>
@@ -3317,21 +3384,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B38D0DA5-94E5-4B4C-8F1E-8A5A51406A71}">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:G29"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39:J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="38.73046875" customWidth="1"/>
     <col min="6" max="6" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.1328125" customWidth="1"/>
+    <col min="10" max="10" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="5" t="s">
         <v>90</v>
       </c>
       <c r="B1" t="s">
@@ -3351,7 +3420,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B2" t="s">
@@ -3359,10 +3428,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="8"/>
+      <c r="A3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="9"/>
+      <c r="A4" s="5"/>
       <c r="B4" t="s">
         <v>98</v>
       </c>
@@ -3380,7 +3449,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B5">
@@ -3400,7 +3469,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B6">
@@ -3420,7 +3489,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B7">
@@ -3440,7 +3509,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B8">
@@ -3460,7 +3529,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="5" t="s">
         <v>103</v>
       </c>
       <c r="B9" t="s">
@@ -3480,7 +3549,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="5" t="s">
         <v>105</v>
       </c>
       <c r="B10" t="s">
@@ -3500,7 +3569,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="5" t="s">
         <v>103</v>
       </c>
       <c r="B11" t="s">
@@ -3515,12 +3584,12 @@
       <c r="E11">
         <v>-5.96</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="14">
         <v>2.5000000000000001E-9</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="5" t="s">
         <v>105</v>
       </c>
       <c r="B12" t="s">
@@ -3540,10 +3609,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" s="8"/>
+      <c r="A13" s="4"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="5" t="s">
         <v>109</v>
       </c>
       <c r="B14" t="s">
@@ -3554,7 +3623,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="5" t="s">
         <v>112</v>
       </c>
       <c r="B15" t="s">
@@ -3584,7 +3653,7 @@
       <c r="E20" s="26"/>
       <c r="F20" s="26"/>
       <c r="G20" s="26"/>
-      <c r="H20" s="9"/>
+      <c r="H20" s="5"/>
       <c r="I20" t="s">
         <v>98</v>
       </c>
@@ -3602,23 +3671,23 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A21" s="22"/>
-      <c r="B21" s="23" t="s">
+      <c r="A21" s="15"/>
+      <c r="B21" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="F21" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="H21" s="5" t="s">
         <v>116</v>
       </c>
       <c r="I21">
@@ -3641,25 +3710,25 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="B22" s="23">
+      <c r="B22" s="16">
         <v>-0.377</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C22" s="16">
         <v>0.68589999999999995</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="16">
         <v>9.7500000000000003E-2</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="16">
         <v>-3.87</v>
       </c>
-      <c r="F22" s="24">
+      <c r="F22" s="17">
         <v>1.1E-4</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="H22" s="5" t="s">
         <v>117</v>
       </c>
       <c r="I22">
@@ -3682,25 +3751,25 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="B23" s="23">
+      <c r="B23" s="16">
         <v>-0.99360000000000004</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C23" s="16">
         <v>0.37019999999999997</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D23" s="16">
         <v>9.8500000000000004E-2</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="16">
         <v>-10.09</v>
       </c>
-      <c r="F23" s="24" t="s">
+      <c r="F23" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="H23" s="5" t="s">
         <v>7</v>
       </c>
       <c r="I23">
@@ -3723,25 +3792,25 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="23">
+      <c r="B24" s="16">
         <v>1.3096000000000001</v>
       </c>
-      <c r="C24" s="23">
+      <c r="C24" s="16">
         <v>3.7048000000000001</v>
       </c>
-      <c r="D24" s="23">
+      <c r="D24" s="16">
         <v>5.6099999999999997E-2</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="16">
         <v>23.33</v>
       </c>
-      <c r="F24" s="24" t="s">
+      <c r="F24" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="H24" s="5" t="s">
         <v>8</v>
       </c>
       <c r="I24">
@@ -3764,25 +3833,25 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="23">
+      <c r="B25" s="16">
         <v>2.1396999999999999</v>
       </c>
-      <c r="C25" s="23">
+      <c r="C25" s="16">
         <v>8.4966000000000008</v>
       </c>
-      <c r="D25" s="23">
+      <c r="D25" s="16">
         <v>6.3299999999999995E-2</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25" s="16">
         <v>33.79</v>
       </c>
-      <c r="F25" s="24" t="s">
+      <c r="F25" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="5" t="s">
         <v>118</v>
       </c>
       <c r="I25">
@@ -3797,7 +3866,7 @@
       <c r="L25">
         <v>-4.3419999999999996</v>
       </c>
-      <c r="M25" s="21">
+      <c r="M25" s="14">
         <v>1.4100000000000001E-5</v>
       </c>
       <c r="N25" t="s">
@@ -3805,25 +3874,25 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="B26" s="23">
+      <c r="B26" s="16">
         <v>-0.52610000000000001</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26" s="16">
         <v>0.59089999999999998</v>
       </c>
-      <c r="D26" s="23">
+      <c r="D26" s="16">
         <v>0.13930000000000001</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26" s="16">
         <v>-3.78</v>
       </c>
-      <c r="F26" s="24">
+      <c r="F26" s="17">
         <v>1.6000000000000001E-4</v>
       </c>
-      <c r="H26" s="9" t="s">
+      <c r="H26" s="5" t="s">
         <v>119</v>
       </c>
       <c r="I26">
@@ -3843,25 +3912,25 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="B27" s="23">
+      <c r="B27" s="16">
         <v>-1.4999999999999999E-2</v>
       </c>
-      <c r="C27" s="23">
+      <c r="C27" s="16">
         <v>0.98509999999999998</v>
       </c>
-      <c r="D27" s="23">
+      <c r="D27" s="16">
         <v>0.13900000000000001</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E27" s="16">
         <v>-0.11</v>
       </c>
-      <c r="F27" s="23">
+      <c r="F27" s="16">
         <v>0.91413999999999995</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="H27" s="5" t="s">
         <v>120</v>
       </c>
       <c r="I27">
@@ -3876,7 +3945,7 @@
       <c r="L27">
         <v>-5.6509999999999998</v>
       </c>
-      <c r="M27" s="21">
+      <c r="M27" s="14">
         <v>1.6000000000000001E-8</v>
       </c>
       <c r="N27" t="s">
@@ -3884,25 +3953,25 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="B28" s="23">
+      <c r="B28" s="16">
         <v>-0.98499999999999999</v>
       </c>
-      <c r="C28" s="23">
+      <c r="C28" s="16">
         <v>0.37340000000000001</v>
       </c>
-      <c r="D28" s="23">
+      <c r="D28" s="16">
         <v>0.14779999999999999</v>
       </c>
-      <c r="E28" s="23">
+      <c r="E28" s="16">
         <v>-6.67</v>
       </c>
-      <c r="F28" s="25">
+      <c r="F28" s="18">
         <v>2.6000000000000001E-11</v>
       </c>
-      <c r="H28" s="9" t="s">
+      <c r="H28" s="5" t="s">
         <v>121</v>
       </c>
       <c r="I28">
@@ -3922,30 +3991,30 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="B29" s="23">
+      <c r="B29" s="16">
         <v>-1.819</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C29" s="16">
         <v>0.16220000000000001</v>
       </c>
-      <c r="D29" s="23">
+      <c r="D29" s="16">
         <v>0.20480000000000001</v>
       </c>
-      <c r="E29" s="23">
+      <c r="E29" s="16">
         <v>-8.8800000000000008</v>
       </c>
-      <c r="F29" s="24" t="s">
+      <c r="F29" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A30" s="8"/>
+      <c r="A30" s="4"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="5" t="s">
         <v>122</v>
       </c>
       <c r="B31" t="s">
@@ -3956,11 +4025,293 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="5" t="s">
         <v>125</v>
       </c>
       <c r="B32">
         <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A35" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A36" s="4"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A37" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A38" s="4"/>
+      <c r="H38" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="I38" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="J38" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="K38" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="L38" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="M38" s="29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A39" s="5"/>
+      <c r="B39" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" t="s">
+        <v>115</v>
+      </c>
+      <c r="E39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F39" t="s">
+        <v>3</v>
+      </c>
+      <c r="H39" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="I39" s="16">
+        <v>-0.86450499999999997</v>
+      </c>
+      <c r="J39" s="27">
+        <v>0.42130000000000001</v>
+      </c>
+      <c r="K39" s="27">
+        <v>5.9659999999999998E-2</v>
+      </c>
+      <c r="L39" s="27">
+        <v>-14.49</v>
+      </c>
+      <c r="M39" s="29" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A40" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B40">
+        <v>-0.86450499999999997</v>
+      </c>
+      <c r="C40">
+        <v>0.42126000000000002</v>
+      </c>
+      <c r="D40">
+        <v>5.9659999999999998E-2</v>
+      </c>
+      <c r="E40">
+        <v>-14.49</v>
+      </c>
+      <c r="F40" t="s">
+        <v>150</v>
+      </c>
+      <c r="G40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H40" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="I40" s="16">
+        <v>-1.433676</v>
+      </c>
+      <c r="J40" s="27">
+        <v>0.2384</v>
+      </c>
+      <c r="K40" s="27">
+        <v>6.5254999999999994E-2</v>
+      </c>
+      <c r="L40" s="27">
+        <v>-21.97</v>
+      </c>
+      <c r="M40" s="29" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A41" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B41">
+        <v>-1.433676</v>
+      </c>
+      <c r="C41">
+        <v>0.238431</v>
+      </c>
+      <c r="D41">
+        <v>6.5254999999999994E-2</v>
+      </c>
+      <c r="E41">
+        <v>-21.97</v>
+      </c>
+      <c r="F41" t="s">
+        <v>150</v>
+      </c>
+      <c r="G41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H41" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="I41" s="16">
+        <v>0.22845299999999999</v>
+      </c>
+      <c r="J41" s="27">
+        <v>1.2566999999999999</v>
+      </c>
+      <c r="K41" s="27">
+        <v>6.8490000000000001E-3</v>
+      </c>
+      <c r="L41" s="27">
+        <v>33.36</v>
+      </c>
+      <c r="M41" s="29" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A42" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B42">
+        <v>0.22845299999999999</v>
+      </c>
+      <c r="C42">
+        <v>1.2566550000000001</v>
+      </c>
+      <c r="D42">
+        <v>6.8490000000000001E-3</v>
+      </c>
+      <c r="E42">
+        <v>33.36</v>
+      </c>
+      <c r="F42" t="s">
+        <v>150</v>
+      </c>
+      <c r="G42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A43" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A44" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A45" s="4"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A46" s="5"/>
+      <c r="B46" t="s">
+        <v>114</v>
+      </c>
+      <c r="C46" t="s">
+        <v>152</v>
+      </c>
+      <c r="D46" t="s">
+        <v>153</v>
+      </c>
+      <c r="E46" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A47" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B47">
+        <v>0.42130000000000001</v>
+      </c>
+      <c r="C47">
+        <v>2.3738000000000001</v>
+      </c>
+      <c r="D47">
+        <v>0.37480000000000002</v>
+      </c>
+      <c r="E47">
+        <v>0.47349999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A48" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B48">
+        <v>0.2384</v>
+      </c>
+      <c r="C48">
+        <v>4.1940999999999997</v>
+      </c>
+      <c r="D48">
+        <v>0.20979999999999999</v>
+      </c>
+      <c r="E48">
+        <v>0.27100000000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A49" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B49">
+        <v>1.2566999999999999</v>
+      </c>
+      <c r="C49">
+        <v>0.79579999999999995</v>
+      </c>
+      <c r="D49">
+        <v>1.2399</v>
+      </c>
+      <c r="E49">
+        <v>1.2736000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A50" s="4"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A51" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A52" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A53" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A54" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A55" s="5" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -3988,7 +4339,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="9"/>
+      <c r="A1" s="5"/>
       <c r="B1" t="s">
         <v>33</v>
       </c>
@@ -4000,7 +4351,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B2">
@@ -4009,12 +4360,12 @@
       <c r="C2">
         <v>-18656.830000000002</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B3">
@@ -4023,12 +4374,12 @@
       <c r="C3">
         <v>-18655.36</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B4">
@@ -4037,12 +4388,12 @@
       <c r="C4">
         <v>-18650.5</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B5">
@@ -4051,12 +4402,12 @@
       <c r="C5">
         <v>-18650.47</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B6">
@@ -4065,12 +4416,12 @@
       <c r="C6">
         <v>-18617.88</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B7">
@@ -4079,12 +4430,12 @@
       <c r="C7">
         <v>-18617.13</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B8">
@@ -4093,12 +4444,12 @@
       <c r="C8">
         <v>-16935.09</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B9">
@@ -4107,12 +4458,12 @@
       <c r="C9">
         <v>-16934.98</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" s="9"/>
+      <c r="A13" s="5"/>
       <c r="B13" t="s">
         <v>33</v>
       </c>
@@ -4121,7 +4472,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B14">
@@ -4130,12 +4481,12 @@
       <c r="C14">
         <v>-16929.91</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B15">
@@ -4144,12 +4495,12 @@
       <c r="C15">
         <v>-16930.09</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B16">
@@ -4158,12 +4509,12 @@
       <c r="C16">
         <v>-18643.55</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="5" t="s">
         <v>55</v>
       </c>
       <c r="B17">
@@ -4172,12 +4523,12 @@
       <c r="C17">
         <v>-18648.330000000002</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="5" t="s">
         <v>56</v>
       </c>
       <c r="B18">
@@ -4186,12 +4537,12 @@
       <c r="C18">
         <v>-18610.14</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B19">
@@ -4200,12 +4551,12 @@
       <c r="C19">
         <v>-18610.849999999999</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B20">
@@ -4214,12 +4565,12 @@
       <c r="C20">
         <v>-18643.54</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B21">
@@ -4228,12 +4579,12 @@
       <c r="C21">
         <v>-18649.79</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="5" t="s">
         <v>60</v>
       </c>
       <c r="B22">
@@ -4247,7 +4598,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A27" s="9"/>
+      <c r="A27" s="5"/>
       <c r="B27" t="s">
         <v>33</v>
       </c>
@@ -4259,7 +4610,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="5" t="s">
         <v>134</v>
       </c>
       <c r="B28">
@@ -4273,7 +4624,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="5" t="s">
         <v>129</v>
       </c>
       <c r="B29">
@@ -4282,12 +4633,12 @@
       <c r="C29">
         <v>13256.69</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="5" t="s">
         <v>133</v>
       </c>
       <c r="B30">
@@ -4296,12 +4647,12 @@
       <c r="C30">
         <v>13256.89</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="5" t="s">
         <v>130</v>
       </c>
       <c r="B31">
@@ -4310,12 +4661,12 @@
       <c r="C31">
         <v>13259.97</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="5" t="s">
         <v>128</v>
       </c>
       <c r="B32">
@@ -4324,12 +4675,12 @@
       <c r="C32">
         <v>13262.2</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="5" t="s">
         <v>132</v>
       </c>
       <c r="B33">
@@ -4338,12 +4689,12 @@
       <c r="C33">
         <v>13262.28</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="5" t="s">
         <v>131</v>
       </c>
       <c r="B34">
@@ -4352,12 +4703,12 @@
       <c r="C34">
         <v>13262.32</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="5" t="s">
         <v>127</v>
       </c>
       <c r="B35">
@@ -4366,12 +4717,12 @@
       <c r="C35">
         <v>13873.11</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="5" t="s">
         <v>126</v>
       </c>
       <c r="B36">
@@ -4380,62 +4731,62 @@
       <c r="C36">
         <v>13875.69</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D40" s="24" t="s">
+      <c r="D40" s="17" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B41" s="23">
+      <c r="B41" s="16">
         <v>12</v>
       </c>
-      <c r="C41" s="23">
+      <c r="C41" s="16">
         <v>13256.69</v>
       </c>
-      <c r="D41" s="22" t="s">
+      <c r="D41" s="15" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B42" s="23">
+      <c r="B42" s="16">
         <v>11</v>
       </c>
-      <c r="C42" s="23">
+      <c r="C42" s="16">
         <v>13256.89</v>
       </c>
-      <c r="D42" s="22" t="s">
+      <c r="D42" s="15" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B43" s="23">
+      <c r="B43" s="16">
         <v>12</v>
       </c>
-      <c r="C43" s="23">
+      <c r="C43" s="16">
         <v>13262.2</v>
       </c>
-      <c r="D43" s="22" t="s">
+      <c r="D43" s="15" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B44" s="23">
+      <c r="B44" s="16">
         <v>11</v>
       </c>
-      <c r="C44" s="23">
+      <c r="C44" s="16">
         <v>13262.28</v>
       </c>
-      <c r="D44" s="22" t="s">
+      <c r="D44" s="15" t="s">
         <v>140</v>
       </c>
     </row>
